--- a/grupo.xlsx
+++ b/grupo.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Módulo</t>
   </si>
@@ -124,13 +124,16 @@
   </si>
   <si>
     <t>Ligaçao IA</t>
+  </si>
+  <si>
+    <t>testes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,21 +232,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -261,7 +264,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -299,7 +302,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -333,7 +336,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -368,10 +370,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -544,14 +545,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" style="2" customWidth="1"/>
@@ -561,17 +562,17 @@
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -597,22 +598,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -623,8 +624,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -635,8 +636,8 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -647,8 +648,8 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -659,8 +660,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -671,8 +672,8 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
@@ -683,8 +684,8 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
@@ -695,8 +696,8 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -707,9 +708,9 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1">
       <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -717,8 +718,8 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" thickTop="1">
+      <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -731,8 +732,8 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+    <row r="14" spans="1:8" ht="15" customHeight="1">
+      <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
@@ -743,8 +744,8 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
@@ -755,8 +756,8 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
@@ -767,8 +768,8 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+    <row r="17" spans="1:8">
+      <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
@@ -779,8 +780,8 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
@@ -791,8 +792,8 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
@@ -803,8 +804,8 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+    <row r="20" spans="1:8">
+      <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
@@ -815,8 +816,8 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:8">
+      <c r="A21" s="10"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -824,9 +825,9 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -834,56 +835,56 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" thickTop="1">
+      <c r="A23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+    <row r="24" spans="1:8" s="1" customFormat="1">
+      <c r="A24" s="10"/>
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+    <row r="25" spans="1:8" s="1" customFormat="1">
+      <c r="A25" s="10"/>
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+    <row r="26" spans="1:8" s="1" customFormat="1">
+      <c r="A26" s="10"/>
       <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+    <row r="27" spans="1:8" s="1" customFormat="1">
+      <c r="A27" s="10"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A28" s="10"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="15.75" thickTop="1">
+      <c r="A29" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="10"/>
       <c r="B30" s="2" t="s">
         <v>33</v>
       </c>
@@ -894,8 +895,8 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+    <row r="31" spans="1:8">
+      <c r="A31" s="10"/>
       <c r="B31" s="2" t="s">
         <v>34</v>
       </c>
@@ -906,8 +907,11 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+    <row r="32" spans="1:8">
+      <c r="A32" s="10"/>
+      <c r="B32" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -915,8 +919,8 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+    <row r="33" spans="1:8">
+      <c r="A33" s="10"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -924,8 +928,8 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+    <row r="34" spans="1:8">
+      <c r="A34" s="10"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -933,9 +937,9 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -943,7 +947,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:8" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A29:A35"/>
@@ -958,24 +962,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
